--- a/IBK/excel/invoice_result_0702_Current_ori.xlsx
+++ b/IBK/excel/invoice_result_0702_Current_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>file name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>041852192000057_304018_20190222_3019022210503103.1.jpg</t>
   </si>
   <si>
-    <t>KCE INC. (KOREA CRANE ENGINEERING),OFFICE 908-1 HO, 264, CHEONENA CANAL-RO, SEO-GU, INCHEON. KOREA,</t>
-  </si>
-  <si>
     <t>041852193000040_304018_20190226_2019022612432106.jpg</t>
   </si>
   <si>
@@ -73,27 +70,18 @@
     <t>042052194000324_304018_20190222_3019022213042009.3.jpg</t>
   </si>
   <si>
-    <t>BTSC CO..LTD.,5F, BTS BUILDING, 349. JUNGANG-RO, YANGCHEON-GU, SEOUL 07933. KOREA,</t>
-  </si>
-  <si>
     <t>042052194000324_304018_20190222_3019022213042009.4.jpg</t>
   </si>
   <si>
     <t>042052194000331_304018_20190222_201902221305320e.1.jpg</t>
   </si>
   <si>
-    <t>BTSC CO,LTD.,5F. BIS BUILDING. 349, JUNGANG-RO, YANGCHEON-GU. SEOUL KOREA,</t>
-  </si>
-  <si>
     <t>042052194000331_304018_20190222_201902221305320e.2.jpg</t>
   </si>
   <si>
     <t>042052194000331_304018_20190222_201902221305320e.3.jpg</t>
   </si>
   <si>
-    <t>BRER RN I M,</t>
-  </si>
-  <si>
     <t>042052194000331_304018_20190222_201902221305320e.4.jpg</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>042052194000331_304018_20190222_201902221305320e.13.jpg</t>
   </si>
   <si>
-    <t>BTSC CO,LTD.,SF. BTS BUILDING. 349. JUNGANG-RO. YANGCHEON-GU. SEOUL KOREA,</t>
-  </si>
-  <si>
     <t>042052194000331_304018_20190222_201902221305320e.14.jpg</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>042052194000349_304018_20190222_2019022213033807.12.jpg</t>
   </si>
   <si>
-    <t>BTSC CO., LTD NINGBO OFFICE,ROOM 1702. JIANGCHEN BUILDING, NO. 99,,TAI HUI LANE. YINZHOU. NINGBO. CHINA (ZIP CODE: 315194),</t>
-  </si>
-  <si>
     <t>042052194000349_304018_20190222_2019022213033807.13.jpg</t>
   </si>
   <si>
@@ -260,6 +242,178 @@
   </si>
   <si>
     <t>US$40,014.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samkyung Altec Co., Ltd 144 Block 2 Lot, Nam Dong Complex 716-11 Go-Jan Dong, Namdong-gu, Incheon Korea.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US$43,355.78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samkyung Altec Co., Ltd 144 Block 2 Lot, Nam Dong Complex 716-11 Go-Jan Dong, Namdong-gu, Incheon Korea.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US$1,080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US$47,064.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US$3,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US$2,160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAE-WON CHENMICAL CO., 70 Noksan Sandan 23 1-Ro, Gandseo-Ku, Busan-46757 Korea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>067519010001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KCE INC. (KOREA CRANE ENGINEERING) OFFICE : 908-1 HO, 264, CHEONNA CANAL-RO, SEO-GU, INCHEON, KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total amount가 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOREA GAS ENGINEERING, 49-19,403-BEONGIL, DAEGOTBOK-RO,DAEGOT-MYEON,GIMPO-SI, GYEONGGI-DO, SOUTH KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD86,240.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTSC CO., LTD.5F, BTS BUILDING, 349. JUNGANG-RO, YANGCHEON-GU, SEOUL, 07933, KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 1,160.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 3,718.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 13,864.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTSC CO., LTD.5F, BTS BUILDING, 349. JUNGANG-RO, YANGCHEON-GU, SEOUL, KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 13,849.80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 3,307.82</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 633.40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total amount가 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 1,416.96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 9,723.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 31,826.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 1,711.43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 311.74</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 30,147.06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 1,468.93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 672.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 12,221.40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 355.36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTSC CO., LTD NINGBO OFFICE ROOM 1702, JIANGCHEN BUILDING, NO. 99, TAI HUI LANE, YINZHOU, NINGBO, CHINA (ZIP CODE:315194)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 1,915.42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 149.84</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 4,307.92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 6,961.50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTSC VN CO.,LTD. 7TH FLOOR , V.BUILDING , 400/8A UNG VAN KHIEM STREET,25TH WARD,BINH THANH DISTRICT, HO CHI MINH, VIETNAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 98.61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTSC CO., LTD NINGBO OFFICE ROOM 1702, JIANGCHEN BUILDING, NO. 99, TAI HUI LANE. YINZHOU, NINGBO. CHINA (ZIP CODE: 315194)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 130.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTSC CO., LTD NINGBO OFFICE ROOM 1702, JIANGCHEN BUILDING, NO. 99, TAI HUI LANE. YINZHOU, NINGBO. CHINA (ZIP CODE: 315194)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 66.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +438,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -316,12 +485,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -624,16 +798,16 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="143" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.125" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -644,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -655,13 +829,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -669,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -680,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -691,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -716,266 +890,449 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="8">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/IBK/excel/invoice_result_0702_Current_ori.xlsx
+++ b/IBK/excel/invoice_result_0702_Current_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
   <si>
     <t>file name</t>
   </si>
@@ -154,18 +154,12 @@
     <t>042052194000356_304018_20190222_2019022213021508.7.jpg</t>
   </si>
   <si>
-    <t>BTSC CO,LTD.,5F, BTS BUILDING, 349, JUNGANG-RO, YANGCHEON-GU, SEOUL KOREA,</t>
-  </si>
-  <si>
     <t>042052194000356_304018_20190222_2019022213021508.8.jpg</t>
   </si>
   <si>
     <t>042252191000096_304018_20190220_3019022013412801.1.jpg</t>
   </si>
   <si>
-    <t>GIGAVIS CO.,LTD.,53-86, JINWISANDAN-RO, JINWI-MYEON, PYEONGTAEK-SI,,GYEONGGI-DO, KOREA,</t>
-  </si>
-  <si>
     <t>042252191000096_304018_20190220_3019022013412801.2.jpg</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>042252192000107_304018_20190227_2019022716320802.jpg</t>
   </si>
   <si>
-    <t>SD BIOSENSOR,INC.,C-4/6FIOOR, 16, DEOGYEONG-DAERO 1556BEON-GIL, YEONGTONG-GU,,SUWON-SI, GYEONGGI-DO 16690, REPUBLIC OF KOREA,</t>
-  </si>
-  <si>
     <t>KYUNG-IN PRECISION MACHINERY CO.,LTD. 92-8 SIWOO-RO, DANWON-GU. ANSAN-SI. GYEONGGI-DO 15436, SOUTH KOREA.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -414,6 +405,54 @@
   </si>
   <si>
     <t>U$ 66.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 2,785.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 3,859.54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 3,145.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 305.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 547.40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U$ 563.52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGAVIS CO.,LTD.53-86, JINWISANDAN-RO, JINWI-MYEON, PYEONGTAEK-SI,GYEONGGI-DO, KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHBM9IU30480</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD 495,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD BIOSENSOR,INC.C-4/5FLOOR, 16, DEOGYEONG-DAERO 1556BEON-GIL, YEONGTONG-GU,SUWON-SI, GYEONGGI-DO 16690, REPUBLIC OF KOREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDR181210-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD 25,880.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -795,17 +834,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.125" customWidth="1"/>
+    <col min="2" max="2" width="142.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -818,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,13 +868,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -854,10 +893,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -865,10 +904,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,13 +915,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,10 +929,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -901,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -912,10 +951,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,10 +962,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,10 +973,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,10 +984,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -956,10 +995,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8">
         <v>30800</v>
@@ -970,10 +1009,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,10 +1020,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,10 +1031,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,10 +1042,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,10 +1053,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,10 +1075,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,10 +1097,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,10 +1108,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,10 +1119,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,10 +1130,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,10 +1152,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1124,10 +1163,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1135,10 +1174,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,10 +1185,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,10 +1196,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,10 +1207,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,10 +1218,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,10 +1229,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,10 +1240,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,10 +1262,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1234,10 +1273,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,10 +1284,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,83 +1295,146 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>85</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/IBK/excel/invoice_result_0702_Current_ori.xlsx
+++ b/IBK/excel/invoice_result_0702_Current_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>file name</t>
   </si>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>total amount가 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KOREA GAS ENGINEERING, 49-19,403-BEONGIL, DAEGOTBOK-RO,DAEGOT-MYEON,GIMPO-SI, GYEONGGI-DO, SOUTH KOREA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,10 +313,6 @@
   </si>
   <si>
     <t>U$ 633.40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total amount가 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -836,9 +828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,19 +1003,17 @@
       <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1031,10 +1021,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,10 +1032,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,10 +1043,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,10 +1054,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,10 +1065,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,10 +1087,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1108,10 +1095,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1119,10 +1106,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,10 +1117,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,10 +1128,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1152,10 +1139,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1163,10 +1150,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,10 +1161,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,10 +1172,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1196,10 +1183,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1207,10 +1194,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,10 +1205,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,10 +1216,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,10 +1227,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,10 +1238,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1262,10 +1249,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1273,10 +1260,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,10 +1271,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,10 +1282,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,10 +1293,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1317,10 +1304,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,10 +1326,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1350,10 +1337,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1361,10 +1348,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,13 +1359,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,13 +1373,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,13 +1387,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,13 +1401,13 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,13 +1415,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/IBK/excel/invoice_result_0702_Current_ori.xlsx
+++ b/IBK/excel/invoice_result_0702_Current_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
   <si>
     <t>file name</t>
   </si>
@@ -172,10 +172,6 @@
     <t>042252192000107_304018_20190227_2019022716320802.jpg</t>
   </si>
   <si>
-    <t>KYUNG-IN PRECISION MACHINERY CO.,LTD. 92-8 SIWOO-RO, DANWON-GU. ANSAN-SI. GYEONGGI-DO 15436, SOUTH KOREA.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>L/C NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,234 +180,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E-WOO TRADING CO., LTD. RM203 HANGANG CITY LIFE B/D 834 OLYMPIC-RO, GANGDONG-GU SEOUL, KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHUNG JUNG OIL CHEMICAL CO., LTD. 116-18, BYOLMANG-RO, 459 BEON-GIL, DANWON-GU, ANSAN-SI, KYEONGGI-DO, KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHUNG JUNG OIL CHEMICAL CO. LTD. 116-18, BYOLMANG-RO, 458 BEON-GIL, DANWON-GU, ANSAN-SI, KYEONGGI-DO, KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AMOUNT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD10,800.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD14,279.55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$11,830.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$28,462.50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BU KWANG INDUSTRY CO. LT NO.22-7 PACKSA-RI, WACHON-MUN, GYEONGSAN-SI. KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>866-10-0258702</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>￥3,585,790</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samkyung Altec Co., Ltd 144 Block 2 Lot, Nam Dong Complex 716 Go-Jan Dong, Namdong-gu, Incheon Korea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$40,014.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samkyung Altec Co., Ltd 144 Block 2 Lot, Nam Dong Complex 716-11 Go-Jan Dong, Namdong-gu, Incheon Korea.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$43,355.78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samkyung Altec Co., Ltd 144 Block 2 Lot, Nam Dong Complex 716-11 Go-Jan Dong, Namdong-gu, Incheon Korea.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$1,080</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$47,064.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$3,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US$2,160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAE-WON CHENMICAL CO., 70 Noksan Sandan 23 1-Ro, Gandseo-Ku, Busan-46757 Korea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>067519010001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KCE INC. (KOREA CRANE ENGINEERING) OFFICE : 908-1 HO, 264, CHEONNA CANAL-RO, SEO-GU, INCHEON, KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOREA GAS ENGINEERING, 49-19,403-BEONGIL, DAEGOTBOK-RO,DAEGOT-MYEON,GIMPO-SI, GYEONGGI-DO, SOUTH KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD86,240.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTSC CO., LTD.5F, BTS BUILDING, 349. JUNGANG-RO, YANGCHEON-GU, SEOUL, 07933, KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 1,160.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 3,718.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 13,864.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTSC CO., LTD.5F, BTS BUILDING, 349. JUNGANG-RO, YANGCHEON-GU, SEOUL, KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 13,849.80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 3,307.82</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 633.40</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U$ 1,416.96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 9,723.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 31,826.75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 1,711.43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 311.74</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U$ 30,147.06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 1,468.93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 672.10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U$ 12,221.40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 355.36</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BTSC CO., LTD NINGBO OFFICE ROOM 1702, JIANGCHEN BUILDING, NO. 99, TAI HUI LANE, YINZHOU, NINGBO, CHINA (ZIP CODE:315194)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 1,915.42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 149.84</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U$ 4,307.92</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 6,961.50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTSC VN CO.,LTD. 7TH FLOOR , V.BUILDING , 400/8A UNG VAN KHIEM STREET,25TH WARD,BINH THANH DISTRICT, HO CHI MINH, VIETNAM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 98.61</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BTSC CO., LTD NINGBO OFFICE ROOM 1702, JIANGCHEN BUILDING, NO. 99, TAI HUI LANE. YINZHOU, NINGBO. CHINA (ZIP CODE: 315194)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 130.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BTSC CO., LTD NINGBO OFFICE ROOM 1702, JIANGCHEN BUILDING, NO. 99, TAI HUI LANE. YINZHOU, NINGBO. CHINA (ZIP CODE: 315194)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 66.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U$ 2,785.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 3,859.54</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U$ 3,145.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U$ 305.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -424,28 +236,159 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GIGAVIS CO.,LTD.53-86, JINWISANDAN-RO, JINWI-MYEON, PYEONGTAEK-SI,GYEONGGI-DO, KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AHBM9IU30480</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 495,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD BIOSENSOR,INC.C-4/5FLOOR, 16, DEOGYEONG-DAERO 1556BEON-GIL, YEONGTONG-GU,SUWON-SI, GYEONGGI-DO 16690, REPUBLIC OF KOREA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CDR181210-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 25,880.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>KYUNG-IN PRECISION MACHINERY CO. LTD. 92-8 SIWOO-RO  DANWON-GU. ANSAN-SI. GYEONGGI-DO 15436  SOUTH KOREA.</t>
+  </si>
+  <si>
+    <t>USD10 800.00</t>
+  </si>
+  <si>
+    <t>E-WOO TRADING CO.  LTD. RM203 HANGANG CITY LIFE B/D 834 OLYMPIC-RO  GANGDONG-GU SEOUL  KOREA</t>
+  </si>
+  <si>
+    <t>USD14 279.55</t>
+  </si>
+  <si>
+    <t>CHUNG JUNG OIL CHEMICAL CO. LTD. 116-18  BYOLMANG-RO  458 BEON-GIL  DANWON-GU  ANSAN-SI  KYEONGGI-DO  KOREA</t>
+  </si>
+  <si>
+    <t>US$28 462.50</t>
+  </si>
+  <si>
+    <t>CHUNG JUNG OIL CHEMICAL CO.  LTD. 116-18  BYOLMANG-RO  459 BEON-GIL  DANWON-GU  ANSAN-SI  KYEONGGI-DO  KOREA</t>
+  </si>
+  <si>
+    <t>US$11 830.0</t>
+  </si>
+  <si>
+    <t>BU KWANG INDUSTRY CO. LT NO.22-7 PACKSA-RI  WACHON-MUN  GYEONGSAN-SI. KOREA</t>
+  </si>
+  <si>
+    <t>￥3 585 790</t>
+  </si>
+  <si>
+    <t>Samkyung Altec Co.  Ltd 144 Block 2 Lot  Nam Dong Complex 716 Go-Jan Dong  Namdong-gu  Incheon Korea</t>
+  </si>
+  <si>
+    <t>US$40 014.26</t>
+  </si>
+  <si>
+    <t>Samkyung Altec Co.  Ltd 144 Block 2 Lot  Nam Dong Complex 716-11 Go-Jan Dong  Namdong-gu  Incheon Korea.</t>
+  </si>
+  <si>
+    <t>US$43 355.78</t>
+  </si>
+  <si>
+    <t>US$1 080</t>
+  </si>
+  <si>
+    <t>US$47 064.16</t>
+  </si>
+  <si>
+    <t>US$3 000</t>
+  </si>
+  <si>
+    <t>US$2 160</t>
+  </si>
+  <si>
+    <t>TAE-WON CHENMICAL CO.  70 Noksan Sandan 23 1-Ro  Gandseo-Ku  Busan-46757 Korea</t>
+  </si>
+  <si>
+    <t>KCE INC. (KOREA CRANE ENGINEERING) OFFICE : 908-1 HO  264  CHEONNA CANAL-RO  SEO-GU  INCHEON  KOREA</t>
+  </si>
+  <si>
+    <t>KOREA GAS ENGINEERING  49-19 403-BEONGIL  DAEGOTBOK-RO DAEGOT-MYEON GIMPO-SI  GYEONGGI-DO  SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>USD86 240.00</t>
+  </si>
+  <si>
+    <t>BTSC CO.  LTD.5F  BTS BUILDING  349. JUNGANG-RO  YANGCHEON-GU  SEOUL  07933  KOREA</t>
+  </si>
+  <si>
+    <t>U$ 1 160.00</t>
+  </si>
+  <si>
+    <t>U$ 3 718.00</t>
+  </si>
+  <si>
+    <t>BTSC CO.  LTD.5F  BTS BUILDING  349. JUNGANG-RO  YANGCHEON-GU  SEOUL  KOREA</t>
+  </si>
+  <si>
+    <t>U$ 13 864.28</t>
+  </si>
+  <si>
+    <t>U$ 13 849.80</t>
+  </si>
+  <si>
+    <t>U$ 3 307.82</t>
+  </si>
+  <si>
+    <t>U$ 1 416.96</t>
+  </si>
+  <si>
+    <t>U$ 9 723.20</t>
+  </si>
+  <si>
+    <t>U$ 31 826.75</t>
+  </si>
+  <si>
+    <t>U$ 1 711.43</t>
+  </si>
+  <si>
+    <t>U$ 30 147.06</t>
+  </si>
+  <si>
+    <t>U$ 1 468.93</t>
+  </si>
+  <si>
+    <t>U$ 12 221.40</t>
+  </si>
+  <si>
+    <t>BTSC CO.  LTD NINGBO OFFICE ROOM 1702  JIANGCHEN BUILDING  NO. 99  TAI HUI LANE  YINZHOU  NINGBO  CHINA (ZIP CODE:315194)</t>
+  </si>
+  <si>
+    <t>U$ 1 915.42</t>
+  </si>
+  <si>
+    <t>U$ 4 307.92</t>
+  </si>
+  <si>
+    <t>U$ 6 961.50</t>
+  </si>
+  <si>
+    <t>BTSC VN CO. LTD. 7TH FLOOR   V.BUILDING   400/8A UNG VAN KHIEM STREET 25TH WARD BINH THANH DISTRICT  HO CHI MINH  VIETNAM</t>
+  </si>
+  <si>
+    <t>BTSC CO.  LTD NINGBO OFFICE ROOM 1702  JIANGCHEN BUILDING  NO. 99  TAI HUI LANE. YINZHOU  NINGBO. CHINA (ZIP CODE: 315194)</t>
+  </si>
+  <si>
+    <t>U$ 2 785.17</t>
+  </si>
+  <si>
+    <t>U$ 3 859.54</t>
+  </si>
+  <si>
+    <t>U$ 3 145.10</t>
+  </si>
+  <si>
+    <t>GIGAVIS CO. LTD.53-86  JINWISANDAN-RO  JINWI-MYEON  PYEONGTAEK-SI GYEONGGI-DO  KOREA</t>
+  </si>
+  <si>
+    <t>USD 495 000</t>
+  </si>
+  <si>
+    <t>SD BIOSENSOR INC.C-4/5FLOOR  16  DEOGYEONG-DAERO 1556BEON-GIL  YEONGTONG-GU SUWON-SI  GYEONGGI-DO 16690  REPUBLIC OF KOREA</t>
+  </si>
+  <si>
+    <t>USD 25 880.00</t>
   </si>
 </sst>
 </file>
@@ -830,7 +773,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -860,13 +803,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,13 +850,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -921,10 +864,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,10 +875,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -943,10 +886,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -965,10 +908,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,10 +919,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -987,10 +930,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8">
         <v>30800</v>
@@ -1001,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -1010,10 +953,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1021,10 +964,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1032,10 +975,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,10 +986,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1054,10 +997,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,10 +1008,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,10 +1019,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1087,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,10 +1038,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,10 +1049,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,10 +1060,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,10 +1071,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,10 +1082,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1150,10 +1093,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,10 +1104,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,10 +1115,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,10 +1126,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,10 +1137,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1205,10 +1148,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,10 +1159,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,10 +1170,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,10 +1181,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1249,10 +1192,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,10 +1203,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1271,10 +1214,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1282,10 +1225,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,10 +1236,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1304,10 +1247,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1315,10 +1258,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,10 +1269,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1348,10 +1291,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,10 +1305,10 @@
         <v>115</v>
       </c>
       <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,10 +1319,10 @@
         <v>115</v>
       </c>
       <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,10 +1333,10 @@
         <v>115</v>
       </c>
       <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,10 +1347,10 @@
         <v>115</v>
       </c>
       <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1415,13 +1358,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
